--- a/Engineering Tests/IE21 1.4 180607.xlsx
+++ b/Engineering Tests/IE21 1.4 180607.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\users\natha\documents\Dropbox\Python\jpnotebooks\Engineering Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{903E5A3A-B583-42CF-814D-98F8769407C2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2934A812-51A3-4F85-B8E3-0AC828CB9CA1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
@@ -1036,7 +1036,8 @@
         <c:axId val="537547368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
+          <c:max val="6"/>
+          <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1102,9 +1103,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1403,6 +1401,20 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="537561472"/>
+        <c:axId val="537556880"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -2123,14 +2135,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="537561472"/>
-        <c:axId val="537556880"/>
+        <c:axId val="470511560"/>
+        <c:axId val="470506640"/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="537561472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
+          <c:max val="6"/>
+          <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2156,6 +2169,35 @@
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="537561472"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="470506640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="470511560"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="470511560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="470506640"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -2932,7 +2974,8 @@
         <c:axId val="537560488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
+          <c:max val="6"/>
+          <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
